--- a/shop_xlsx/신제품보만 AF1270W.xlsx
+++ b/shop_xlsx/신제품보만 AF1270W.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -490,19 +490,32 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>성능은 좋은데 헤드가 1단에서 조금 떨어서 소음이 있는데 가까이서 들으면 들리고 멀리서는 안들려요
+성능은 좋은데 헤드가 1단에서 조금 떨어서 소음이 있는데 가까이서 들으면 들리고 멀리서는 안들려요</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>평점5</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
           <t>거실용으로 구입 3단 바람 조절로 에어컨 사용시 사용중이에요. 날개 부분은 작지만 바람은 셉니다.손잡이가 없어서 이동시 좀 불편해요
 거실용으로 구입 3단 바람 조절로 에어컨 사용시 사용중이에요. 날개 부분은 작지만 바람은 셉니다.
 손잡이가 없어서 이동시 좀 불편해요</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>평점5</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>평점5</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
         <is>
           <t>별루요소음도 크고 전기도 많이 먹고다른거 사러 갑니다..모양은 작아요
 별루요
@@ -511,14 +524,14 @@
 모양은 작아요</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>평점5</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>평점5</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
         <is>
           <t>높낮이 조절이 앉되요조금 저속에서 소음 있음그래도 저렴하며 시원함
 높낮이 조절이 앉되요
@@ -526,140 +539,127 @@
 그래도 저렴하며 시원함</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>평점5</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>평점5</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
         <is>
           <t>이번 여름에 보만에서 선풍기 두대 구입했어요 사이즈가 앙증맞아요
 이번 여름에 보만에서 선풍기 두대 구입했어요 사이즈가 앙증맞아요</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>평점5</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>평점5</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
         <is>
           <t>디자인 깔끔하고 성능 괜찮아요아이방에 딱 입니다
 디자인 깔끔하고 성능 괜찮아요
 아이방에 딱 입니다</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>평점5</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>평점5</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
         <is>
           <t>시원하고 깔끔해요 조립이 조금 귀찮앗지만
 시원하고 깔끔해요 조립이 조금 귀찮앗지만</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>평점5</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>평점5</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
         <is>
           <t>바람좋고 크기고 아주 딱 맘에 들어요~^^
 바람좋고 크기고 아주 딱 맘에 들어요~^^</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>평점5</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>평점5</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
         <is>
           <t>배송빠르고 좋아요.잘 사용할게요
 배송빠르고 좋아요.
 잘 사용할게요</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>평점5</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>평점5</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
         <is>
           <t>층고 높은 집에는 정말 딱이에요!
 층고 높은 집에는 정말 딱이에요!</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>평점5</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>평점5</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
         <is>
           <t>무난하게 쓰기 좋아요~ 제품 조립 설명이 더 자세하게 되어있으면 좋겠네요!
 무난하게 쓰기 좋아요~ 제품 조립 설명이 더 자세하게 되어있으면 좋겠네요!</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>평점5</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>평점5</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>여자 혼자 조립하기 너무 힘들었습니다 사용설명서가 너무 불친절해요...
 여자 혼자 조립하기 너무 힘들었습니다
 사용설명서가 너무 불친절해요...</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>평점5</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>평점5</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
         <is>
           <t>아주 좋아요.잘 쓰겠습니다.
 아주 좋아요.
 잘 쓰겠습니다.</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>평점5</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>일반선풍기보다 팬사이즈가 작은 편이지만 엄청 시원합니당(전 팬이 작은거 때문에 샀지만요)
-일반선풍기보다 팬사이즈가 작은 편이지만 엄청 시원합니당(전 팬이 작은거 때문에 샀지만요)</t>
-        </is>
-      </c>
       <c r="B17" t="inlineStr">
         <is>
           <t>평점5</t>
@@ -669,24 +669,37 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
+          <t>일반선풍기보다 팬사이즈가 작은 편이지만 엄청 시원합니당(전 팬이 작은거 때문에 샀지만요)
+일반선풍기보다 팬사이즈가 작은 편</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>평점5</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
           <t>배송도 빠르고 시원해요
 배송도 빠르고 시원해요</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>평점5</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>평점5</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>헤드부분을 아래로 젖히는 순간 날개 파손에 재조랍 해서 on 하면 심하게 헤드부분이 덜덜 거림
 헤드부분을 아래로 젖히는 순간 날개 파손에 재조랍 해서 on 하면 심하게 헤드부분이 덜덜 거림</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B20" t="inlineStr">
         <is>
           <t>평점5</t>
         </is>
